--- a/Example 2 - Corporate Rating/Corporate Rating.xlsx
+++ b/Example 2 - Corporate Rating/Corporate Rating.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="507">
   <si>
     <t>Domain Model</t>
   </si>
@@ -3503,11 +3503,15 @@
       <t>(Double value)</t>
     </r>
   </si>
+  <si>
+    <t>Group2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3692,7 +3696,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="0" tint="-0.34998626667073579" rgb="FFFFFF"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
       <charset val="204"/>
@@ -3729,7 +3733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3741,13 +3745,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.34998626667073579" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="2" tint="-0.249977111117893" rgb="FBEEC9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3759,7 +3763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3924,9 +3928,9 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0" xfId="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0" xfId="2"/>
   </cellStyleXfs>
   <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4313,9 +4317,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4732,10 +4736,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="40.90625" customWidth="1"/>
-    <col min="6" max="6" width="56.1796875" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="12.0"/>
+    <col min="4" max="4" customWidth="true" width="13.0"/>
+    <col min="5" max="5" customWidth="true" width="40.90625"/>
+    <col min="6" max="6" customWidth="true" width="56.1796875"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
@@ -5012,7 +5016,7 @@
       </c>
       <c r="D26" s="127"/>
       <c r="E26" s="3" t="s">
-        <v>101</v>
+        <v>506</v>
       </c>
       <c r="F26" s="45" t="s">
         <v>109</v>
@@ -6063,8 +6067,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
-    <col min="5" max="5" width="57.90625" customWidth="1"/>
+    <col min="4" max="4" customWidth="true" width="20.81640625"/>
+    <col min="5" max="5" customWidth="true" width="57.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.35">
@@ -6275,9 +6279,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.08984375" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" customWidth="1"/>
-    <col min="4" max="4" width="36.81640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="12.08984375"/>
+    <col min="3" max="3" customWidth="true" width="24.1796875"/>
+    <col min="4" max="4" customWidth="true" width="36.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.35">
@@ -6437,11 +6441,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.90625" style="1"/>
-    <col min="3" max="3" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="2" style="1" width="8.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="12.6328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="32.36328125"/>
+    <col min="5" max="5" customWidth="true" style="1" width="20.54296875"/>
+    <col min="6" max="16384" style="1" width="8.90625"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
@@ -7035,9 +7039,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="24.08984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.453125"/>
+    <col min="2" max="2" customWidth="true" width="6.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="24.08984375"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
@@ -7354,11 +7358,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="39.36328125" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="45.6328125" customWidth="1"/>
+    <col min="4" max="4" customWidth="true" width="15.08984375"/>
+    <col min="5" max="5" customWidth="true" width="39.36328125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="7" max="7" customWidth="true" width="12.1796875"/>
+    <col min="9" max="9" customWidth="true" width="45.6328125"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
@@ -7999,10 +8003,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="11.54296875"/>
+    <col min="3" max="3" customWidth="true" width="21.54296875"/>
+    <col min="4" max="4" customWidth="true" width="34.81640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.453125"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
@@ -8369,9 +8373,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="23.6328125" style="48" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" style="48" width="23.6328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="48" width="27.453125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.35">
@@ -9188,10 +9192,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="25.54296875"/>
+    <col min="4" max="4" customWidth="true" width="22.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.35">
@@ -9979,9 +9983,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" style="77" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.1796875"/>
+    <col min="4" max="4" customWidth="true" style="77" width="21.81640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="77" width="17.54296875"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
@@ -10223,10 +10227,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="29.54296875" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.54296875" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="29.54296875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.6328125"/>
+    <col min="6" max="6" customWidth="true" width="6.54296875"/>
+    <col min="8" max="8" customWidth="true" width="7.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.35">
@@ -11129,8 +11133,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="34.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.36328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.6328125"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
@@ -11290,8 +11294,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="39.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="30.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.35">
@@ -11497,11 +11501,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="12.453125"/>
+    <col min="4" max="4" customWidth="true" width="16.1796875"/>
+    <col min="5" max="5" customWidth="true" width="18.0"/>
+    <col min="6" max="6" customWidth="true" width="17.08984375"/>
+    <col min="7" max="7" customWidth="true" width="10.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.35">

--- a/Example 2 - Corporate Rating/Corporate Rating.xlsx
+++ b/Example 2 - Corporate Rating/Corporate Rating.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16209844-8022-42F3-9C78-B3CC3DF76DFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B15698-41EB-FE41-AEBB-2B7C8BFAE573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="860" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36600" yWindow="-2620" windowWidth="23260" windowHeight="17500" tabRatio="860" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Algorithm" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="523">
   <si>
     <t>Domain Model</t>
   </si>
@@ -3505,6 +3505,54 @@
   </si>
   <si>
     <t>Group2</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult mySpr(Corporate corp, FinancialData financialData, Industry industry)</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>Calc1</t>
+  </si>
+  <si>
+    <t>=CorporateRatingCalculation(corp)</t>
+  </si>
+  <si>
+    <t>Calc2</t>
+  </si>
+  <si>
+    <t>=FinancialRatingCalculation(financialData, industry)</t>
+  </si>
+  <si>
+    <t>unite</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>=$Calc1&amp;$Calc2</t>
+  </si>
+  <si>
+    <t>=$Calc1:$Calc2</t>
+  </si>
+  <si>
+    <t>=ture?$Calc1:$Calc2</t>
+  </si>
+  <si>
+    <t>=true?$Calc1:$Calc2</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult mySpr1(Corporate corp, FinancialData financialData, Industry industry)</t>
+  </si>
+  <si>
+    <t>=true?($Calc1):($Calc2)</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult mySpr1()</t>
   </si>
 </sst>
 </file>
@@ -3515,7 +3563,7 @@
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3696,7 +3744,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579" rgb="FFFFFF"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
       <charset val="204"/>
@@ -3733,7 +3781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" rgb="FFFFFF"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3745,13 +3793,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579" rgb="FFFFFF"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893" rgb="FBEEC9"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3763,12 +3811,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -3818,7 +3866,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.499984740745262" rgb="F0A22E"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3926,38 +3974,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0" xfId="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0" xfId="2"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3975,20 +4041,20 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3997,55 +4063,51 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4056,10 +4118,10 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4069,14 +4131,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4085,60 +4146,48 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="6" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4146,10 +4195,10 @@
     <xf numFmtId="16" fontId="3" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4164,13 +4213,7 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4183,19 +4226,19 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4203,44 +4246,48 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4272,20 +4319,20 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4305,16 +4352,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4728,28 +4766,28 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B3:I96"/>
+  <dimension ref="B3:I103"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" customWidth="true" width="12.0"/>
     <col min="4" max="4" customWidth="true" width="13.0"/>
-    <col min="5" max="5" customWidth="true" width="40.90625"/>
-    <col min="6" max="6" customWidth="true" width="56.1796875"/>
+    <col min="5" max="5" customWidth="true" width="40.83203125"/>
+    <col min="6" max="6" customWidth="true" width="56.1640625"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="2:8" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -4757,17 +4795,17 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="2:8" ht="105" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="10"/>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="122" t="s">
         <v>444</v>
       </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -4775,37 +4813,37 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="118" t="s">
         <v>392</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="125" t="s">
+      <c r="E9" s="112" t="s">
         <v>437</v>
       </c>
-      <c r="F9" s="125"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="43" t="s">
+      <c r="D10" s="113"/>
+      <c r="E10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -4813,132 +4851,132 @@
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B11" s="10"/>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="112" t="s">
         <v>458</v>
       </c>
-      <c r="D11" s="125"/>
+      <c r="D11" s="112"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="44" t="s">
         <v>110</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="106" t="s">
+      <c r="H11" s="96" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="10"/>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="121" t="s">
         <v>459</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="45" t="s">
+      <c r="D12" s="121"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="44" t="s">
         <v>340</v>
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="2:8" ht="27.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="28" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="121" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="112" t="s">
+      <c r="D13" s="121"/>
+      <c r="E13" s="101" t="s">
         <v>406</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="44" t="s">
         <v>460</v>
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="10"/>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="121" t="s">
         <v>461</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="122" t="s">
+      <c r="D14" s="121"/>
+      <c r="E14" s="123" t="s">
         <v>431</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="44" t="s">
         <v>341</v>
       </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="10"/>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="121" t="s">
         <v>462</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="45" t="s">
+      <c r="D15" s="121"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="44" t="s">
         <v>339</v>
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="10"/>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="121" t="s">
         <v>463</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="45" t="s">
+      <c r="D16" s="121"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="44" t="s">
         <v>342</v>
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="2:8" ht="28.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="121" t="s">
         <v>464</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="73" t="s">
+      <c r="D17" s="121"/>
+      <c r="E17" s="70" t="s">
         <v>432</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="44" t="s">
         <v>372</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="106" t="s">
+      <c r="H17" s="96" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="115" t="s">
         <v>348</v>
       </c>
-      <c r="D18" s="128"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="F18" s="72" t="s">
+      <c r="F18" s="69" t="s">
         <v>373</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="106" t="s">
+      <c r="H18" s="96" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="10"/>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="117" t="s">
         <v>465</v>
       </c>
-      <c r="D19" s="132"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="57" t="s">
+      <c r="D19" s="117"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="56" t="s">
         <v>347</v>
       </c>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -4946,7 +4984,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -4954,39 +4992,39 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="118" t="s">
         <v>393</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="106" t="s">
+      <c r="H22" s="96" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="10"/>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="125" t="s">
+      <c r="E23" s="112" t="s">
         <v>438</v>
       </c>
-      <c r="F23" s="125"/>
+      <c r="F23" s="112"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="10"/>
-      <c r="C24" s="126" t="s">
+      <c r="C24" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="126"/>
+      <c r="D24" s="113"/>
       <c r="E24" s="2" t="s">
         <v>65</v>
       </c>
@@ -4995,323 +5033,323 @@
       </c>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="10"/>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="127"/>
+      <c r="D25" s="114"/>
       <c r="E25" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="44" t="s">
         <v>205</v>
       </c>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="10"/>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="127"/>
+      <c r="D26" s="114"/>
       <c r="E26" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="44" t="s">
         <v>109</v>
       </c>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="10"/>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="127"/>
+      <c r="D27" s="114"/>
       <c r="E27" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="44" t="s">
         <v>167</v>
       </c>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="10"/>
-      <c r="C28" s="130" t="s">
+      <c r="C28" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="D28" s="130"/>
-      <c r="E28" s="56" t="s">
+      <c r="D28" s="116"/>
+      <c r="E28" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="56" t="s">
         <v>181</v>
       </c>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="10"/>
-      <c r="C29" s="127" t="s">
+      <c r="C29" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="127"/>
+      <c r="D29" s="114"/>
       <c r="E29" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="44" t="s">
         <v>206</v>
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="10"/>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="127"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="44" t="s">
         <v>112</v>
       </c>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="10"/>
-      <c r="C31" s="127" t="s">
+      <c r="C31" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="D31" s="127"/>
+      <c r="D31" s="114"/>
       <c r="E31" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="44" t="s">
         <v>170</v>
       </c>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="10"/>
-      <c r="C32" s="130" t="s">
+      <c r="C32" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="D32" s="130"/>
-      <c r="E32" s="56" t="s">
+      <c r="D32" s="116"/>
+      <c r="E32" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="56" t="s">
         <v>180</v>
       </c>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="10"/>
-      <c r="C33" s="127" t="s">
+      <c r="C33" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="127"/>
+      <c r="D33" s="114"/>
       <c r="E33" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="44" t="s">
         <v>207</v>
       </c>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="10"/>
-      <c r="C34" s="127" t="s">
+      <c r="C34" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="127"/>
+      <c r="D34" s="114"/>
       <c r="E34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="45" t="s">
+      <c r="F34" s="44" t="s">
         <v>121</v>
       </c>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="10"/>
-      <c r="C35" s="127" t="s">
+      <c r="C35" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="D35" s="127"/>
+      <c r="D35" s="114"/>
       <c r="E35" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="44" t="s">
         <v>174</v>
       </c>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="10"/>
-      <c r="C36" s="130" t="s">
+      <c r="C36" s="116" t="s">
         <v>173</v>
       </c>
-      <c r="D36" s="130"/>
-      <c r="E36" s="56" t="s">
+      <c r="D36" s="116"/>
+      <c r="E36" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="F36" s="57" t="s">
+      <c r="F36" s="56" t="s">
         <v>179</v>
       </c>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="10"/>
-      <c r="C37" s="127" t="s">
+      <c r="C37" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="127"/>
+      <c r="D37" s="114"/>
       <c r="E37" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="44" t="s">
         <v>208</v>
       </c>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="10"/>
-      <c r="C38" s="127" t="s">
+      <c r="C38" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="127"/>
+      <c r="D38" s="114"/>
       <c r="E38" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="45" t="s">
+      <c r="F38" s="44" t="s">
         <v>192</v>
       </c>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="10"/>
-      <c r="C39" s="127" t="s">
+      <c r="C39" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="D39" s="127"/>
+      <c r="D39" s="114"/>
       <c r="E39" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F39" s="45" t="s">
+      <c r="F39" s="44" t="s">
         <v>177</v>
       </c>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="10"/>
-      <c r="C40" s="130" t="s">
+      <c r="C40" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="130"/>
-      <c r="E40" s="56" t="s">
+      <c r="D40" s="116"/>
+      <c r="E40" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="57" t="s">
+      <c r="F40" s="56" t="s">
         <v>178</v>
       </c>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="10"/>
-      <c r="C41" s="127" t="s">
+      <c r="C41" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="127"/>
+      <c r="D41" s="114"/>
       <c r="E41" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F41" s="45" t="s">
+      <c r="F41" s="44" t="s">
         <v>209</v>
       </c>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="10"/>
-      <c r="C42" s="127" t="s">
+      <c r="C42" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="127"/>
+      <c r="D42" s="114"/>
       <c r="E42" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F42" s="45" t="s">
+      <c r="F42" s="44" t="s">
         <v>130</v>
       </c>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="10"/>
-      <c r="C43" s="127" t="s">
+      <c r="C43" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="127"/>
+      <c r="D43" s="114"/>
       <c r="E43" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F43" s="45" t="s">
+      <c r="F43" s="44" t="s">
         <v>184</v>
       </c>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="10"/>
-      <c r="C44" s="130" t="s">
+      <c r="C44" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="D44" s="130"/>
-      <c r="E44" s="56" t="s">
+      <c r="D44" s="116"/>
+      <c r="E44" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="F44" s="57" t="s">
+      <c r="F44" s="56" t="s">
         <v>185</v>
       </c>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="2:7" ht="28.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B45" s="10"/>
-      <c r="C45" s="127" t="s">
+      <c r="C45" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="127"/>
-      <c r="E45" s="65" t="s">
+      <c r="D45" s="114"/>
+      <c r="E45" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="F45" s="66" t="s">
+      <c r="F45" s="64" t="s">
         <v>188</v>
       </c>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B46" s="10"/>
-      <c r="C46" s="128" t="s">
+      <c r="C46" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="D46" s="128"/>
-      <c r="E46" s="71" t="s">
+      <c r="D46" s="115"/>
+      <c r="E46" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="F46" s="72" t="s">
+      <c r="F46" s="69" t="s">
         <v>197</v>
       </c>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="10"/>
-      <c r="C47" s="70"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="10"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -5319,40 +5357,40 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="2:9" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B49" s="10"/>
-      <c r="C49" s="124" t="s">
+      <c r="C49" s="118" t="s">
         <v>394</v>
       </c>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="118"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="106" t="s">
+      <c r="H49" s="96" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="10"/>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="125" t="s">
+      <c r="E50" s="112" t="s">
         <v>436</v>
       </c>
-      <c r="F50" s="125"/>
+      <c r="F50" s="112"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="10"/>
-      <c r="C51" s="126" t="s">
+      <c r="C51" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="126"/>
-      <c r="E51" s="43" t="s">
+      <c r="D51" s="113"/>
+      <c r="E51" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F51" s="7" t="s">
@@ -5360,189 +5398,189 @@
       </c>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="10"/>
-      <c r="C52" s="125" t="s">
+      <c r="C52" s="112" t="s">
         <v>253</v>
       </c>
-      <c r="D52" s="125"/>
+      <c r="D52" s="112"/>
       <c r="E52" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F52" s="45" t="s">
+      <c r="F52" s="44" t="s">
         <v>266</v>
       </c>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="2:9" ht="28.2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" ht="28" x14ac:dyDescent="0.15">
       <c r="B53" s="10"/>
-      <c r="C53" s="127" t="s">
+      <c r="C53" s="114" t="s">
         <v>254</v>
       </c>
-      <c r="D53" s="127"/>
+      <c r="D53" s="114"/>
       <c r="E53" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="F53" s="45" t="s">
+      <c r="F53" s="44" t="s">
         <v>267</v>
       </c>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="10"/>
-      <c r="C54" s="130" t="s">
+      <c r="C54" s="116" t="s">
         <v>258</v>
       </c>
-      <c r="D54" s="130"/>
-      <c r="E54" s="56" t="s">
+      <c r="D54" s="116"/>
+      <c r="E54" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="F54" s="57" t="s">
+      <c r="F54" s="56" t="s">
         <v>261</v>
       </c>
       <c r="G54" s="10"/>
-      <c r="I54" s="97"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I54" s="88"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="10"/>
-      <c r="C55" s="127" t="s">
+      <c r="C55" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="D55" s="127"/>
+      <c r="D55" s="114"/>
       <c r="E55" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F55" s="45" t="s">
+      <c r="F55" s="44" t="s">
         <v>268</v>
       </c>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="10"/>
-      <c r="C56" s="130" t="s">
+      <c r="C56" s="116" t="s">
         <v>259</v>
       </c>
-      <c r="D56" s="130"/>
-      <c r="E56" s="56" t="s">
+      <c r="D56" s="116"/>
+      <c r="E56" s="55" t="s">
         <v>412</v>
       </c>
-      <c r="F56" s="57" t="s">
+      <c r="F56" s="56" t="s">
         <v>262</v>
       </c>
       <c r="G56" s="10"/>
-      <c r="I56" s="97"/>
-    </row>
-    <row r="57" spans="2:9" ht="28.2" x14ac:dyDescent="0.35">
+      <c r="I56" s="88"/>
+    </row>
+    <row r="57" spans="2:9" ht="28" x14ac:dyDescent="0.15">
       <c r="B57" s="10"/>
-      <c r="C57" s="127" t="s">
+      <c r="C57" s="114" t="s">
         <v>256</v>
       </c>
-      <c r="D57" s="127"/>
+      <c r="D57" s="114"/>
       <c r="E57" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="F57" s="45" t="s">
+      <c r="F57" s="44" t="s">
         <v>269</v>
       </c>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" s="10"/>
-      <c r="C58" s="130" t="s">
+      <c r="C58" s="116" t="s">
         <v>260</v>
       </c>
-      <c r="D58" s="130"/>
-      <c r="E58" s="56" t="s">
+      <c r="D58" s="116"/>
+      <c r="E58" s="55" t="s">
         <v>414</v>
       </c>
-      <c r="F58" s="57" t="s">
+      <c r="F58" s="56" t="s">
         <v>263</v>
       </c>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="10"/>
-      <c r="C59" s="131" t="s">
+      <c r="C59" s="120" t="s">
         <v>273</v>
       </c>
-      <c r="D59" s="131"/>
+      <c r="D59" s="120"/>
       <c r="E59" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="F59" s="45" t="s">
+      <c r="F59" s="44" t="s">
         <v>272</v>
       </c>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="10"/>
-      <c r="C60" s="127" t="s">
+      <c r="C60" s="114" t="s">
         <v>257</v>
       </c>
-      <c r="D60" s="127"/>
+      <c r="D60" s="114"/>
       <c r="E60" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F60" s="45" t="s">
+      <c r="F60" s="44" t="s">
         <v>270</v>
       </c>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="10"/>
-      <c r="C61" s="130" t="s">
+      <c r="C61" s="116" t="s">
         <v>271</v>
       </c>
-      <c r="D61" s="130"/>
-      <c r="E61" s="56" t="s">
+      <c r="D61" s="116"/>
+      <c r="E61" s="55" t="s">
         <v>417</v>
       </c>
-      <c r="F61" s="57" t="s">
+      <c r="F61" s="56" t="s">
         <v>264</v>
       </c>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="2:9" ht="56.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:9" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B62" s="10"/>
-      <c r="C62" s="127" t="s">
+      <c r="C62" s="114" t="s">
         <v>265</v>
       </c>
-      <c r="D62" s="127"/>
-      <c r="E62" s="113" t="s">
+      <c r="D62" s="114"/>
+      <c r="E62" s="102" t="s">
         <v>433</v>
       </c>
-      <c r="F62" s="66" t="s">
+      <c r="F62" s="64" t="s">
         <v>283</v>
       </c>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B63" s="10"/>
-      <c r="C63" s="128" t="s">
+      <c r="C63" s="115" t="s">
         <v>461</v>
       </c>
-      <c r="D63" s="128"/>
-      <c r="E63" s="71" t="s">
+      <c r="D63" s="115"/>
+      <c r="E63" s="68" t="s">
         <v>418</v>
       </c>
-      <c r="F63" s="72" t="s">
+      <c r="F63" s="69" t="s">
         <v>284</v>
       </c>
       <c r="G63" s="10"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="10"/>
-      <c r="C64" s="129" t="s">
+      <c r="C64" s="119" t="s">
         <v>274</v>
       </c>
-      <c r="D64" s="129"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="68" t="s">
+      <c r="D64" s="119"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="66" t="s">
         <v>285</v>
       </c>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -5550,7 +5588,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -5558,40 +5596,40 @@
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B67" s="10"/>
-      <c r="C67" s="124" t="s">
+      <c r="C67" s="118" t="s">
         <v>395</v>
       </c>
-      <c r="D67" s="124"/>
-      <c r="E67" s="124"/>
-      <c r="F67" s="124"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="118"/>
+      <c r="F67" s="118"/>
       <c r="G67" s="10"/>
-      <c r="H67" s="106" t="s">
+      <c r="H67" s="96" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="10"/>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D68" s="55" t="s">
+      <c r="D68" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="125" t="s">
+      <c r="E68" s="112" t="s">
         <v>439</v>
       </c>
-      <c r="F68" s="125"/>
+      <c r="F68" s="112"/>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B69" s="10"/>
-      <c r="C69" s="126" t="s">
+      <c r="C69" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="126"/>
-      <c r="E69" s="43" t="s">
+      <c r="D69" s="113"/>
+      <c r="E69" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F69" s="7" t="s">
@@ -5599,173 +5637,173 @@
       </c>
       <c r="G69" s="10"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B70" s="10"/>
-      <c r="C70" s="125" t="s">
+      <c r="C70" s="112" t="s">
         <v>304</v>
       </c>
-      <c r="D70" s="125"/>
+      <c r="D70" s="112"/>
       <c r="E70" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F70" s="45" t="s">
+      <c r="F70" s="44" t="s">
         <v>306</v>
       </c>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B71" s="10"/>
-      <c r="C71" s="130" t="s">
+      <c r="C71" s="116" t="s">
         <v>305</v>
       </c>
-      <c r="D71" s="130"/>
-      <c r="E71" s="56" t="s">
+      <c r="D71" s="116"/>
+      <c r="E71" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="F71" s="57" t="s">
+      <c r="F71" s="56" t="s">
         <v>307</v>
       </c>
       <c r="G71" s="10"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B72" s="10"/>
-      <c r="C72" s="125" t="s">
+      <c r="C72" s="112" t="s">
         <v>302</v>
       </c>
-      <c r="D72" s="125"/>
+      <c r="D72" s="112"/>
       <c r="E72" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="F72" s="45" t="s">
+      <c r="F72" s="44" t="s">
         <v>308</v>
       </c>
       <c r="G72" s="10"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B73" s="10"/>
-      <c r="C73" s="130" t="s">
+      <c r="C73" s="116" t="s">
         <v>303</v>
       </c>
-      <c r="D73" s="130"/>
-      <c r="E73" s="56" t="s">
+      <c r="D73" s="116"/>
+      <c r="E73" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="F73" s="57" t="s">
+      <c r="F73" s="56" t="s">
         <v>307</v>
       </c>
       <c r="G73" s="10"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B74" s="10"/>
-      <c r="C74" s="127" t="s">
+      <c r="C74" s="114" t="s">
         <v>309</v>
       </c>
-      <c r="D74" s="127"/>
+      <c r="D74" s="114"/>
       <c r="E74" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="F74" s="45" t="s">
+      <c r="F74" s="44" t="s">
         <v>311</v>
       </c>
       <c r="G74" s="10"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B75" s="10"/>
-      <c r="C75" s="130" t="s">
+      <c r="C75" s="116" t="s">
         <v>310</v>
       </c>
-      <c r="D75" s="130"/>
-      <c r="E75" s="56" t="s">
+      <c r="D75" s="116"/>
+      <c r="E75" s="55" t="s">
         <v>422</v>
       </c>
-      <c r="F75" s="57" t="s">
+      <c r="F75" s="56" t="s">
         <v>312</v>
       </c>
       <c r="G75" s="10"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B76" s="10"/>
-      <c r="C76" s="131" t="s">
+      <c r="C76" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="D76" s="131"/>
+      <c r="D76" s="120"/>
       <c r="E76" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="F76" s="45" t="s">
+      <c r="F76" s="44" t="s">
         <v>318</v>
       </c>
       <c r="G76" s="10"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B77" s="10"/>
-      <c r="C77" s="127" t="s">
+      <c r="C77" s="114" t="s">
         <v>314</v>
       </c>
-      <c r="D77" s="127"/>
+      <c r="D77" s="114"/>
       <c r="E77" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F77" s="45" t="s">
+      <c r="F77" s="44" t="s">
         <v>315</v>
       </c>
       <c r="G77" s="10"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B78" s="10"/>
-      <c r="C78" s="130" t="s">
+      <c r="C78" s="116" t="s">
         <v>271</v>
       </c>
-      <c r="D78" s="130"/>
-      <c r="E78" s="56" t="s">
+      <c r="D78" s="116"/>
+      <c r="E78" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="F78" s="57" t="s">
+      <c r="F78" s="56" t="s">
         <v>261</v>
       </c>
       <c r="G78" s="10"/>
     </row>
-    <row r="79" spans="2:8" ht="56.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:8" ht="71" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B79" s="10"/>
-      <c r="C79" s="127" t="s">
+      <c r="C79" s="114" t="s">
         <v>265</v>
       </c>
-      <c r="D79" s="127"/>
-      <c r="E79" s="113" t="s">
+      <c r="D79" s="114"/>
+      <c r="E79" s="102" t="s">
         <v>434</v>
       </c>
-      <c r="F79" s="66" t="s">
+      <c r="F79" s="64" t="s">
         <v>317</v>
       </c>
       <c r="G79" s="10"/>
     </row>
-    <row r="80" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B80" s="10"/>
-      <c r="C80" s="128" t="s">
+      <c r="C80" s="115" t="s">
         <v>462</v>
       </c>
-      <c r="D80" s="128"/>
-      <c r="E80" s="71" t="s">
+      <c r="D80" s="115"/>
+      <c r="E80" s="68" t="s">
         <v>425</v>
       </c>
-      <c r="F80" s="72" t="s">
+      <c r="F80" s="69" t="s">
         <v>284</v>
       </c>
       <c r="G80" s="10"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B81" s="10"/>
-      <c r="C81" s="129" t="s">
+      <c r="C81" s="119" t="s">
         <v>274</v>
       </c>
-      <c r="D81" s="129"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="68" t="s">
+      <c r="D81" s="119"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="66" t="s">
         <v>316</v>
       </c>
       <c r="G81" s="10"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -5773,7 +5811,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -5781,40 +5819,40 @@
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
     </row>
-    <row r="84" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B84" s="10"/>
-      <c r="C84" s="124" t="s">
+      <c r="C84" s="118" t="s">
         <v>396</v>
       </c>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
       <c r="G84" s="10"/>
-      <c r="H84" s="106" t="s">
+      <c r="H84" s="96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="10"/>
-      <c r="C85" s="55" t="s">
+      <c r="C85" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D85" s="55" t="s">
+      <c r="D85" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E85" s="125" t="s">
+      <c r="E85" s="112" t="s">
         <v>445</v>
       </c>
-      <c r="F85" s="125"/>
+      <c r="F85" s="112"/>
       <c r="G85" s="10"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B86" s="10"/>
-      <c r="C86" s="126" t="s">
+      <c r="C86" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="D86" s="126"/>
-      <c r="E86" s="43" t="s">
+      <c r="D86" s="113"/>
+      <c r="E86" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F86" s="7" t="s">
@@ -5822,131 +5860,131 @@
       </c>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B87" s="10"/>
-      <c r="C87" s="125" t="s">
+      <c r="C87" s="112" t="s">
         <v>326</v>
       </c>
-      <c r="D87" s="125"/>
+      <c r="D87" s="112"/>
       <c r="E87" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="F87" s="45" t="s">
+      <c r="F87" s="44" t="s">
         <v>327</v>
       </c>
       <c r="G87" s="10"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B88" s="10"/>
-      <c r="C88" s="130" t="s">
+      <c r="C88" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D88" s="130"/>
-      <c r="E88" s="56" t="s">
+      <c r="D88" s="116"/>
+      <c r="E88" s="55" t="s">
         <v>422</v>
       </c>
-      <c r="F88" s="57" t="s">
+      <c r="F88" s="56" t="s">
         <v>312</v>
       </c>
       <c r="G88" s="10"/>
     </row>
-    <row r="89" spans="2:8" ht="28.2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" ht="28" x14ac:dyDescent="0.15">
       <c r="B89" s="10"/>
-      <c r="C89" s="125" t="s">
+      <c r="C89" s="112" t="s">
         <v>328</v>
       </c>
-      <c r="D89" s="125"/>
+      <c r="D89" s="112"/>
       <c r="E89" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="F89" s="45" t="s">
+      <c r="F89" s="44" t="s">
         <v>330</v>
       </c>
       <c r="G89" s="10"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B90" s="10"/>
-      <c r="C90" s="130" t="s">
+      <c r="C90" s="116" t="s">
         <v>329</v>
       </c>
-      <c r="D90" s="130"/>
-      <c r="E90" s="56" t="s">
+      <c r="D90" s="116"/>
+      <c r="E90" s="55" t="s">
         <v>417</v>
       </c>
-      <c r="F90" s="57" t="s">
+      <c r="F90" s="56" t="s">
         <v>264</v>
       </c>
       <c r="G90" s="10"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B91" s="10"/>
-      <c r="C91" s="127" t="s">
+      <c r="C91" s="114" t="s">
         <v>331</v>
       </c>
-      <c r="D91" s="127"/>
+      <c r="D91" s="114"/>
       <c r="E91" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="F91" s="45" t="s">
+      <c r="F91" s="44" t="s">
         <v>333</v>
       </c>
       <c r="G91" s="10"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B92" s="10"/>
-      <c r="C92" s="130" t="s">
+      <c r="C92" s="116" t="s">
         <v>332</v>
       </c>
-      <c r="D92" s="130"/>
-      <c r="E92" s="56" t="s">
+      <c r="D92" s="116"/>
+      <c r="E92" s="55" t="s">
         <v>429</v>
       </c>
-      <c r="F92" s="57" t="s">
+      <c r="F92" s="56" t="s">
         <v>334</v>
       </c>
       <c r="G92" s="10"/>
     </row>
-    <row r="93" spans="2:8" ht="42.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:8" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B93" s="10"/>
-      <c r="C93" s="127" t="s">
+      <c r="C93" s="114" t="s">
         <v>265</v>
       </c>
-      <c r="D93" s="127"/>
-      <c r="E93" s="113" t="s">
+      <c r="D93" s="114"/>
+      <c r="E93" s="102" t="s">
         <v>435</v>
       </c>
-      <c r="F93" s="66" t="s">
+      <c r="F93" s="64" t="s">
         <v>335</v>
       </c>
       <c r="G93" s="10"/>
     </row>
-    <row r="94" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B94" s="10"/>
-      <c r="C94" s="128" t="s">
+      <c r="C94" s="115" t="s">
         <v>463</v>
       </c>
-      <c r="D94" s="128"/>
-      <c r="E94" s="71" t="s">
+      <c r="D94" s="115"/>
+      <c r="E94" s="68" t="s">
         <v>430</v>
       </c>
-      <c r="F94" s="72" t="s">
+      <c r="F94" s="69" t="s">
         <v>284</v>
       </c>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B95" s="10"/>
-      <c r="C95" s="129" t="s">
+      <c r="C95" s="119" t="s">
         <v>274</v>
       </c>
-      <c r="D95" s="129"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="68" t="s">
+      <c r="D95" s="119"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="66" t="s">
         <v>336</v>
       </c>
       <c r="G95" s="10"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -5954,22 +5992,83 @@
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
     </row>
+    <row r="98">
+      <c r="B98" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="C98" s="0"/>
+    </row>
+    <row r="99">
+      <c r="B99" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="C100" s="145"/>
+    </row>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C39:D39"/>
+  <mergeCells count="83">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="E50:F50"/>
@@ -5986,58 +6085,21 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B98:C98"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H11" location="'Set NonZero Values'!A1" display="'Set NonZero Values'!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6065,189 +6127,189 @@
       <selection activeCell="D18" sqref="D18:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="20.81640625"/>
-    <col min="5" max="5" customWidth="true" width="57.90625"/>
+    <col min="4" max="4" customWidth="true" width="20.83203125"/>
+    <col min="5" max="5" customWidth="true" width="57.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G1" s="106" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G1" s="96" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="47"/>
-    </row>
-    <row r="4" spans="2:7" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="46"/>
+    </row>
+    <row r="4" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="10"/>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="130" t="s">
         <v>447</v>
       </c>
-      <c r="E6" s="140"/>
+      <c r="E6" s="131"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="2:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="10"/>
-      <c r="D8" s="133" t="s">
+      <c r="D8" s="124" t="s">
         <v>491</v>
       </c>
-      <c r="E8" s="134"/>
+      <c r="E8" s="125"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C9" s="10"/>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="54" t="s">
         <v>103</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C10" s="10"/>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C11" s="10"/>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C12" s="10"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="49" t="s">
         <v>277</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C13" s="10"/>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="E13" s="103" t="s">
+      <c r="E13" s="94" t="s">
         <v>344</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C14" s="10"/>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="94" t="s">
         <v>345</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C15" s="10"/>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="E15" s="104" t="s">
+      <c r="E15" s="95" t="s">
         <v>346</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="3:6" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C18" s="10"/>
-      <c r="D18" s="133" t="s">
+      <c r="D18" s="124" t="s">
         <v>492</v>
       </c>
-      <c r="E18" s="134"/>
+      <c r="E18" s="125"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C19" s="10"/>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="49" t="s">
         <v>65</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="3:6" ht="42" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:6" ht="42" x14ac:dyDescent="0.15">
       <c r="C20" s="10"/>
-      <c r="D20" s="74">
+      <c r="D20" s="71">
         <v>1</v>
       </c>
-      <c r="E20" s="108" t="s">
+      <c r="E20" s="97" t="s">
         <v>402</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="3:6" ht="28.2" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:6" ht="42" x14ac:dyDescent="0.15">
       <c r="C21" s="10"/>
-      <c r="D21" s="110">
+      <c r="D21" s="99">
         <v>2</v>
       </c>
-      <c r="E21" s="111" t="s">
+      <c r="E21" s="100" t="s">
         <v>403</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="3:6" ht="42" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:6" ht="56" x14ac:dyDescent="0.15">
       <c r="C22" s="10"/>
-      <c r="D22" s="110">
+      <c r="D22" s="99">
         <v>3</v>
       </c>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="100" t="s">
         <v>404</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="3:6" ht="28.2" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:6" ht="42" x14ac:dyDescent="0.15">
       <c r="C23" s="10"/>
-      <c r="D23" s="109">
+      <c r="D23" s="98">
         <v>4</v>
       </c>
-      <c r="E23" s="108" t="s">
+      <c r="E23" s="97" t="s">
         <v>405</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -6271,48 +6333,48 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="B1:F18"/>
+  <dimension ref="B1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="12.08984375"/>
-    <col min="3" max="3" customWidth="true" width="24.1796875"/>
-    <col min="4" max="4" customWidth="true" width="36.81640625"/>
+    <col min="2" max="2" customWidth="true" width="12.1640625"/>
+    <col min="3" max="3" customWidth="true" width="24.1640625"/>
+    <col min="4" max="4" customWidth="true" width="36.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="F1" s="106" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F1" s="96" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="2:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="118" t="s">
         <v>493</v>
       </c>
-      <c r="D6" s="124"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="10"/>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -6320,69 +6382,69 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="10"/>
       <c r="C8" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="D8" s="154" t="s">
+      <c r="D8" s="109" t="s">
         <v>500</v>
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="D9" s="154" t="s">
+      <c r="D9" s="109" t="s">
         <v>499</v>
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
       <c r="C10" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D10" s="154" t="s">
+      <c r="D10" s="109" t="s">
         <v>501</v>
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10"/>
-      <c r="C11" s="156" t="s">
+      <c r="C11" s="110" t="s">
         <v>495</v>
       </c>
-      <c r="D11" s="157" t="s">
+      <c r="D11" s="111" t="s">
         <v>504</v>
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="138" t="s">
         <v>505</v>
       </c>
-      <c r="D14" s="124"/>
+      <c r="D14" s="118"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="10"/>
-      <c r="C15" s="120" t="b">
+      <c r="C15" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -6390,7 +6452,7 @@
       </c>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="10"/>
       <c r="C16" s="5" t="s">
         <v>496</v>
@@ -6400,7 +6462,7 @@
       </c>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="10"/>
       <c r="C17" s="6"/>
       <c r="D17" s="9" t="s">
@@ -6408,12 +6470,50 @@
       </c>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>508</v>
+      </c>
+      <c r="C28" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>510</v>
+      </c>
+      <c r="C29" s="88" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>512</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>514</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C6:D6"/>
@@ -6439,39 +6539,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" style="1" width="8.90625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="12.6328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="32.36328125"/>
-    <col min="5" max="5" customWidth="true" style="1" width="20.54296875"/>
-    <col min="6" max="16384" style="1" width="8.90625"/>
+    <col min="1" max="2" style="1" width="8.83203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="12.6640625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="32.33203125"/>
+    <col min="5" max="5" customWidth="true" style="1" width="20.5"/>
+    <col min="6" max="16384" style="1" width="8.83203125"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="2:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="15"/>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="15"/>
       <c r="C7" s="12" t="s">
         <v>1</v>
@@ -6479,10 +6579,10 @@
       <c r="D7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="114"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="15"/>
       <c r="C8" s="13" t="s">
         <v>1</v>
@@ -6490,10 +6590,10 @@
       <c r="D8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="115"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="15"/>
       <c r="C9" s="13" t="s">
         <v>14</v>
@@ -6501,12 +6601,12 @@
       <c r="D9" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="E9" s="115" t="s">
+      <c r="E9" s="104" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="15"/>
       <c r="C10" s="13" t="s">
         <v>16</v>
@@ -6514,12 +6614,12 @@
       <c r="D10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="104" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="15"/>
       <c r="C11" s="13" t="s">
         <v>20</v>
@@ -6527,12 +6627,12 @@
       <c r="D11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E11" s="104">
         <v>0</v>
       </c>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="15"/>
       <c r="C12" s="13" t="s">
         <v>2</v>
@@ -6540,10 +6640,10 @@
       <c r="D12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="115"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="15"/>
       <c r="C13" s="14" t="s">
         <v>3</v>
@@ -6551,33 +6651,33 @@
       <c r="D13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="117"/>
+      <c r="E13" s="106"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="15"/>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="15"/>
       <c r="C17" s="12" t="s">
         <v>5</v>
@@ -6585,10 +6685,10 @@
       <c r="D17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="114"/>
+      <c r="E17" s="103"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="15"/>
       <c r="C18" s="13" t="s">
         <v>7</v>
@@ -6596,13 +6696,13 @@
       <c r="D18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="115">
+      <c r="E18" s="104">
         <v>0</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="94"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G18" s="45"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="15"/>
       <c r="C19" s="13" t="s">
         <v>7</v>
@@ -6610,13 +6710,13 @@
       <c r="D19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="115">
+      <c r="E19" s="104">
         <v>0</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="94"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G19" s="45"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="15"/>
       <c r="C20" s="13" t="s">
         <v>7</v>
@@ -6624,13 +6724,13 @@
       <c r="D20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="115">
+      <c r="E20" s="104">
         <v>1E-4</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="94"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G20" s="45"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="15"/>
       <c r="C21" s="13" t="s">
         <v>7</v>
@@ -6638,13 +6738,13 @@
       <c r="D21" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="115">
+      <c r="E21" s="104">
         <v>1E-4</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="94"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G21" s="45"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="15"/>
       <c r="C22" s="13" t="s">
         <v>7</v>
@@ -6652,13 +6752,13 @@
       <c r="D22" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="115">
+      <c r="E22" s="104">
         <v>0</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="95"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G22" s="45"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="15"/>
       <c r="C23" s="13" t="s">
         <v>7</v>
@@ -6666,12 +6766,12 @@
       <c r="D23" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="E23" s="115">
+      <c r="E23" s="104">
         <v>1E-4</v>
       </c>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="15"/>
       <c r="C24" s="13" t="s">
         <v>7</v>
@@ -6679,12 +6779,12 @@
       <c r="D24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="115">
+      <c r="E24" s="104">
         <v>0</v>
       </c>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="15"/>
       <c r="C25" s="13" t="s">
         <v>7</v>
@@ -6692,12 +6792,12 @@
       <c r="D25" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E25" s="115">
+      <c r="E25" s="104">
         <v>0</v>
       </c>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="15"/>
       <c r="C26" s="14" t="s">
         <v>7</v>
@@ -6705,35 +6805,35 @@
       <c r="D26" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E26" s="117">
+      <c r="E26" s="106">
         <v>0</v>
       </c>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="2:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="15"/>
-      <c r="C29" s="124" t="s">
+      <c r="C29" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="15"/>
       <c r="C30" s="12" t="s">
         <v>5</v>
@@ -6741,10 +6841,10 @@
       <c r="D30" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="114"/>
+      <c r="E30" s="103"/>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="15"/>
       <c r="C31" s="13" t="s">
         <v>9</v>
@@ -6752,12 +6852,12 @@
       <c r="D31" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="115" t="s">
+      <c r="E31" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="15"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" s="15"/>
       <c r="C32" s="13" t="s">
         <v>35</v>
@@ -6765,12 +6865,12 @@
       <c r="D32" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="115" t="s">
+      <c r="E32" s="104" t="s">
         <v>95</v>
       </c>
       <c r="F32" s="15"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="15"/>
       <c r="C33" s="13" t="s">
         <v>9</v>
@@ -6778,15 +6878,15 @@
       <c r="D33" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="E33" s="115" t="s">
+      <c r="E33" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="15"/>
-      <c r="G33" s="94" t="s">
+      <c r="G33" s="45" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="15"/>
       <c r="C34" s="13" t="s">
         <v>9</v>
@@ -6794,15 +6894,15 @@
       <c r="D34" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="E34" s="115" t="s">
+      <c r="E34" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="15"/>
-      <c r="G34" s="94" t="s">
+      <c r="G34" s="45" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="15"/>
       <c r="C35" s="13" t="s">
         <v>9</v>
@@ -6810,12 +6910,12 @@
       <c r="D35" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="115" t="s">
+      <c r="E35" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="15"/>
       <c r="C36" s="13" t="s">
         <v>9</v>
@@ -6823,12 +6923,12 @@
       <c r="D36" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="116" t="s">
+      <c r="E36" s="105" t="s">
         <v>401</v>
       </c>
       <c r="F36" s="15"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="15"/>
       <c r="C37" s="13" t="s">
         <v>35</v>
@@ -6836,12 +6936,12 @@
       <c r="D37" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="115" t="s">
+      <c r="E37" s="104" t="s">
         <v>95</v>
       </c>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="15"/>
       <c r="C38" s="13" t="s">
         <v>47</v>
@@ -6849,12 +6949,12 @@
       <c r="D38" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="115" t="s">
+      <c r="E38" s="104" t="s">
         <v>137</v>
       </c>
       <c r="F38" s="15"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="15"/>
       <c r="C39" s="13" t="s">
         <v>9</v>
@@ -6862,12 +6962,12 @@
       <c r="D39" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="115" t="s">
+      <c r="E39" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="15"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" s="15"/>
       <c r="C40" s="13" t="s">
         <v>9</v>
@@ -6875,12 +6975,12 @@
       <c r="D40" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="115" t="s">
+      <c r="E40" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="15"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="15"/>
       <c r="C41" s="13" t="s">
         <v>9</v>
@@ -6888,12 +6988,12 @@
       <c r="D41" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="115" t="s">
+      <c r="E41" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="15"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="15"/>
       <c r="C42" s="13" t="s">
         <v>9</v>
@@ -6901,12 +7001,12 @@
       <c r="D42" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="115" t="s">
+      <c r="E42" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="15"/>
       <c r="C43" s="13" t="s">
         <v>9</v>
@@ -6914,12 +7014,12 @@
       <c r="D43" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="115" t="s">
+      <c r="E43" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="15"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="15"/>
       <c r="C44" s="13" t="s">
         <v>9</v>
@@ -6927,12 +7027,12 @@
       <c r="D44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="115" t="s">
+      <c r="E44" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="15"/>
       <c r="C45" s="13" t="s">
         <v>9</v>
@@ -6940,12 +7040,12 @@
       <c r="D45" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="115" t="s">
+      <c r="E45" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="15"/>
       <c r="C46" s="13" t="s">
         <v>9</v>
@@ -6953,12 +7053,12 @@
       <c r="D46" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="116" t="s">
+      <c r="E46" s="105" t="s">
         <v>401</v>
       </c>
       <c r="F46" s="15"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="15"/>
       <c r="C47" s="13" t="s">
         <v>9</v>
@@ -6966,12 +7066,12 @@
       <c r="D47" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="116" t="s">
+      <c r="E47" s="105" t="s">
         <v>401</v>
       </c>
       <c r="F47" s="15"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="15"/>
       <c r="C48" s="13" t="s">
         <v>9</v>
@@ -6979,12 +7079,12 @@
       <c r="D48" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="115" t="s">
+      <c r="E48" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="15"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B49" s="15"/>
       <c r="C49" s="13" t="s">
         <v>9</v>
@@ -6992,12 +7092,12 @@
       <c r="D49" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="115" t="s">
+      <c r="E49" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="15"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="15"/>
       <c r="C50" s="14" t="s">
         <v>9</v>
@@ -7005,12 +7105,12 @@
       <c r="D50" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="117" t="s">
+      <c r="E50" s="106" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="15"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
@@ -7037,165 +7137,165 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.453125"/>
+    <col min="1" max="1" customWidth="true" width="10.5"/>
     <col min="2" max="2" customWidth="true" width="6.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="24.08984375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="24.1640625"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>77</v>
       </c>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="2:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="15"/>
       <c r="C6" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="15"/>
       <c r="C7" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="15"/>
       <c r="C8" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" s="15"/>
       <c r="C11" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" s="15"/>
       <c r="C12" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="15"/>
       <c r="C13" s="24" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" s="15"/>
       <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="15"/>
       <c r="C15" s="24" t="s">
         <v>139</v>
       </c>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="15"/>
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="15"/>
       <c r="C17" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="15"/>
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="15"/>
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" s="15"/>
       <c r="C20" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" s="15"/>
       <c r="C21" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B24" s="15"/>
       <c r="C24" s="21" t="s">
         <v>80</v>
       </c>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B25" s="15"/>
       <c r="C25" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B26" s="15"/>
       <c r="C26" s="24" t="s">
         <v>95</v>
       </c>
       <c r="D26" s="15"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B27" s="15"/>
       <c r="C27" s="23" t="s">
         <v>36</v>
@@ -7205,24 +7305,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B30" s="15"/>
       <c r="C30" s="21" t="s">
         <v>81</v>
       </c>
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B31" s="15"/>
       <c r="C31" s="22" t="s">
         <v>137</v>
@@ -7232,111 +7332,111 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B32" s="15"/>
       <c r="C32" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="15"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B33" s="15"/>
       <c r="C33" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="15"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36" s="15"/>
       <c r="C36" s="21" t="s">
         <v>168</v>
       </c>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37" s="15"/>
       <c r="C37" s="22" t="s">
         <v>104</v>
       </c>
       <c r="D37" s="15"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38" s="15"/>
       <c r="C38" s="24" t="s">
         <v>113</v>
       </c>
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39" s="15"/>
       <c r="C39" s="24" t="s">
         <v>122</v>
       </c>
       <c r="D39" s="15"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40" s="15"/>
       <c r="C40" s="24" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B41" s="15"/>
       <c r="C41" s="23" t="s">
         <v>131</v>
       </c>
       <c r="D41" s="15"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B44" s="15"/>
       <c r="C44" s="21" t="s">
         <v>466</v>
       </c>
       <c r="D44" s="15"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B45" s="15"/>
       <c r="C45" s="24" t="s">
         <v>278</v>
       </c>
       <c r="D45" s="15"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B46" s="15"/>
       <c r="C46" s="24" t="s">
         <v>279</v>
       </c>
       <c r="D46" s="15"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B47" s="15"/>
       <c r="C47" s="23" t="s">
         <v>240</v>
       </c>
       <c r="D47" s="15"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -7356,17 +7456,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="15.08984375"/>
-    <col min="5" max="5" customWidth="true" width="39.36328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="7" max="7" customWidth="true" width="12.1796875"/>
-    <col min="9" max="9" customWidth="true" width="45.6328125"/>
+    <col min="4" max="4" customWidth="true" width="15.1640625"/>
+    <col min="5" max="5" customWidth="true" width="39.33203125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6640625"/>
+    <col min="7" max="7" customWidth="true" width="12.1640625"/>
+    <col min="9" max="9" customWidth="true" width="45.6640625"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="119" t="s">
+    <row r="3" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="108" t="s">
         <v>448</v>
       </c>
       <c r="C3" s="20"/>
@@ -7374,8 +7474,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -7383,19 +7483,19 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="2:9" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="15"/>
-      <c r="C6" s="153" t="s">
+      <c r="C6" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="15"/>
       <c r="C7" s="27" t="s">
         <v>12</v>
@@ -7409,7 +7509,7 @@
       </c>
       <c r="G7" s="26"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="15"/>
       <c r="C8" s="28" t="s">
         <v>13</v>
@@ -7423,7 +7523,7 @@
       </c>
       <c r="G8" s="26"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="15"/>
       <c r="C9" s="28" t="s">
         <v>191</v>
@@ -7437,7 +7537,7 @@
       </c>
       <c r="G9" s="26"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="15"/>
       <c r="C10" s="28" t="s">
         <v>17</v>
@@ -7451,7 +7551,7 @@
       </c>
       <c r="G10" s="26"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="15"/>
       <c r="C11" s="28" t="s">
         <v>21</v>
@@ -7465,7 +7565,7 @@
       </c>
       <c r="G11" s="26"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="15"/>
       <c r="C12" s="28" t="s">
         <v>15</v>
@@ -7481,7 +7581,7 @@
       </c>
       <c r="G12" s="26"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="15"/>
       <c r="C13" s="30" t="s">
         <v>4</v>
@@ -7497,7 +7597,7 @@
       </c>
       <c r="G13" s="26"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="26"/>
@@ -7505,7 +7605,7 @@
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="26"/>
@@ -7513,17 +7613,17 @@
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="2:9" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="148" t="s">
+      <c r="D16" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="27" t="s">
@@ -7537,7 +7637,7 @@
       </c>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="28" t="s">
@@ -7551,7 +7651,7 @@
       </c>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="28" t="s">
@@ -7565,7 +7665,7 @@
       </c>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="28" t="s">
@@ -7579,7 +7679,7 @@
       </c>
       <c r="G20" s="26"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="28" t="s">
@@ -7593,7 +7693,7 @@
       </c>
       <c r="G21" s="26"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="28" t="s">
@@ -7607,7 +7707,7 @@
       </c>
       <c r="G22" s="26"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="28" t="s">
@@ -7621,7 +7721,7 @@
       </c>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="28" t="s">
@@ -7635,7 +7735,7 @@
       </c>
       <c r="G24" s="26"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="28" t="s">
@@ -7649,7 +7749,7 @@
       </c>
       <c r="G25" s="26"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="28" t="s">
@@ -7663,7 +7763,7 @@
       </c>
       <c r="G26" s="26"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="30" t="s">
@@ -7675,7 +7775,7 @@
       <c r="F27" s="34"/>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="26"/>
@@ -7683,7 +7783,7 @@
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="26"/>
@@ -7691,17 +7791,17 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
     </row>
-    <row r="30" spans="2:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="151" t="s">
+      <c r="D30" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="152"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="143"/>
       <c r="G30" s="26"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="27" t="s">
@@ -7715,7 +7815,7 @@
       </c>
       <c r="G31" s="26"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="28" t="s">
@@ -7729,7 +7829,7 @@
       </c>
       <c r="G32" s="26"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="28" t="s">
@@ -7741,7 +7841,7 @@
       <c r="F33" s="33"/>
       <c r="G33" s="26"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="28" t="s">
@@ -7755,7 +7855,7 @@
       </c>
       <c r="G34" s="26"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="28" t="s">
@@ -7767,7 +7867,7 @@
       <c r="F35" s="33"/>
       <c r="G35" s="26"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="28" t="s">
@@ -7779,7 +7879,7 @@
       <c r="F36" s="33"/>
       <c r="G36" s="26"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="28" t="s">
@@ -7791,7 +7891,7 @@
       <c r="F37" s="33"/>
       <c r="G37" s="26"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="28" t="s">
@@ -7803,7 +7903,7 @@
       <c r="F38" s="33"/>
       <c r="G38" s="26"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="28" t="s">
@@ -7817,7 +7917,7 @@
       </c>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="28" t="s">
@@ -7829,7 +7929,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="28" t="s">
@@ -7841,7 +7941,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="28" t="s">
@@ -7853,7 +7953,7 @@
       <c r="F42" s="37"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="28" t="s">
@@ -7865,7 +7965,7 @@
       <c r="F43" s="37"/>
       <c r="G43" s="26"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="28" t="s">
@@ -7877,7 +7977,7 @@
       <c r="F44" s="37"/>
       <c r="G44" s="26"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="28" t="s">
@@ -7889,7 +7989,7 @@
       <c r="F45" s="37"/>
       <c r="G45" s="26"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="28" t="s">
@@ -7901,7 +8001,7 @@
       <c r="F46" s="37"/>
       <c r="G46" s="26"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="28" t="s">
@@ -7913,7 +8013,7 @@
       <c r="F47" s="37"/>
       <c r="G47" s="26"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="28" t="s">
@@ -7925,7 +8025,7 @@
       <c r="F48" s="37"/>
       <c r="G48" s="26"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="28" t="s">
@@ -7937,7 +8037,7 @@
       <c r="F49" s="37"/>
       <c r="G49" s="26"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="28" t="s">
@@ -7949,7 +8049,7 @@
       <c r="F50" s="37"/>
       <c r="G50" s="26"/>
     </row>
-    <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="28" t="s">
@@ -7961,7 +8061,7 @@
       <c r="F51" s="37"/>
       <c r="G51" s="26"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="30" t="s">
@@ -7973,7 +8073,7 @@
       <c r="F52" s="38"/>
       <c r="G52" s="26"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -8001,60 +8101,60 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="11.54296875"/>
-    <col min="3" max="3" customWidth="true" width="21.54296875"/>
-    <col min="4" max="4" customWidth="true" width="34.81640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.453125"/>
+    <col min="2" max="2" customWidth="true" width="11.5"/>
+    <col min="3" max="3" customWidth="true" width="21.5"/>
+    <col min="4" max="4" customWidth="true" width="34.83203125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>96</v>
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="2:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="10"/>
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="124" t="s">
         <v>449</v>
       </c>
-      <c r="D6" s="134"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="10"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="54" t="s">
         <v>349</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="10"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -8063,68 +8163,68 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="58" t="s">
         <v>398</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="62" t="s">
         <v>203</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="126" t="s">
         <v>450</v>
       </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B14" s="10"/>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="54" t="s">
         <v>204</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="10"/>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="10"/>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -8132,65 +8232,65 @@
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="10"/>
-      <c r="C17" s="102">
+      <c r="C17" s="93">
         <v>2010</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="62" t="s">
         <v>203</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="10"/>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="128" t="s">
         <v>451</v>
       </c>
-      <c r="D20" s="137"/>
+      <c r="D20" s="128"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="10"/>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="54" t="s">
         <v>202</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="10"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="10"/>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -8199,63 +8299,63 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="10"/>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="93" t="s">
         <v>398</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="62" t="s">
         <v>279</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="10"/>
-      <c r="C27" s="137" t="s">
+      <c r="C27" s="128" t="s">
         <v>452</v>
       </c>
-      <c r="D27" s="137"/>
+      <c r="D27" s="128"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="10"/>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="54" t="s">
         <v>202</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="10"/>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="55"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="10"/>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -8264,63 +8364,63 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="10"/>
-      <c r="C31" s="102">
+      <c r="C31" s="93">
         <v>2010</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="62" t="s">
         <v>278</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="10"/>
-      <c r="C34" s="137" t="s">
+      <c r="C34" s="128" t="s">
         <v>453</v>
       </c>
-      <c r="D34" s="137"/>
+      <c r="D34" s="128"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="10"/>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="54" t="s">
         <v>202</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="10"/>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="55"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="10"/>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -8329,18 +8429,18 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="10"/>
-      <c r="C38" s="102">
+      <c r="C38" s="93">
         <v>2010</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="62" t="s">
         <v>278</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -8371,785 +8471,785 @@
       <selection activeCell="C74" sqref="C74:D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" style="48" width="23.6328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="48" width="27.453125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.453125"/>
+    <col min="3" max="3" customWidth="true" style="47" width="23.6640625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="47" width="27.5"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G1" s="106" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G1" s="96" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="47"/>
-    </row>
-    <row r="4" spans="2:7" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="46"/>
+    </row>
+    <row r="4" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="2:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="10"/>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="130" t="s">
         <v>446</v>
       </c>
-      <c r="D6" s="140"/>
+      <c r="D6" s="131"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="2:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="124" t="s">
         <v>469</v>
       </c>
-      <c r="D9" s="134"/>
+      <c r="D9" s="125"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>105</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="10"/>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="50">
         <v>1</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" s="10"/>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="50">
         <v>2</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="50">
         <v>3</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="10"/>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="51">
         <v>4</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="124" t="s">
         <v>470</v>
       </c>
-      <c r="D17" s="134"/>
+      <c r="D17" s="125"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="10"/>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="49" t="s">
         <v>114</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="10"/>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="50">
         <v>1</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="10"/>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="50">
         <v>2</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="10"/>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="50">
         <v>3</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="10"/>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="51">
         <v>4</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
-      <c r="C25" s="133" t="s">
+      <c r="C25" s="124" t="s">
         <v>471</v>
       </c>
-      <c r="D25" s="134"/>
+      <c r="D25" s="125"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="10"/>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="10"/>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="50">
         <v>1</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="10"/>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="50">
         <v>2</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="10"/>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="50">
         <v>3</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="10"/>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="51">
         <v>4</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
-      <c r="C33" s="142" t="s">
+      <c r="C33" s="133" t="s">
         <v>472</v>
       </c>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="133"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="10"/>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="49" t="s">
         <v>136</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="10"/>
-      <c r="C35" s="125" t="s">
+      <c r="C35" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="60">
+      <c r="E35" s="50">
         <v>1</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="10"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="44" t="s">
+      <c r="C36" s="112"/>
+      <c r="D36" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E36" s="60">
+      <c r="E36" s="50">
         <v>2</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="10"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="44" t="s">
+      <c r="C37" s="112"/>
+      <c r="D37" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E37" s="50">
         <v>3</v>
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="10"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="58" t="s">
+      <c r="C38" s="129"/>
+      <c r="D38" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="E38" s="52">
+      <c r="E38" s="51">
         <v>4</v>
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B39" s="10"/>
-      <c r="C39" s="141" t="s">
+      <c r="C39" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="E39" s="62">
+      <c r="E39" s="60">
         <v>1</v>
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40" s="10"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="44" t="s">
+      <c r="C40" s="112"/>
+      <c r="D40" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="60">
+      <c r="E40" s="50">
         <v>2</v>
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" s="10"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="44" t="s">
+      <c r="C41" s="112"/>
+      <c r="D41" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="E41" s="60">
+      <c r="E41" s="50">
         <v>3</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" s="10"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="58" t="s">
+      <c r="C42" s="129"/>
+      <c r="D42" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="52">
+      <c r="E42" s="51">
         <v>4</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43" s="10"/>
-      <c r="C43" s="141" t="s">
+      <c r="C43" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="E43" s="62">
+      <c r="E43" s="60">
         <v>1</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B44" s="10"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="44" t="s">
+      <c r="C44" s="112"/>
+      <c r="D44" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="E44" s="60">
+      <c r="E44" s="50">
         <v>2</v>
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" s="10"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="44" t="s">
+      <c r="C45" s="112"/>
+      <c r="D45" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="E45" s="60">
+      <c r="E45" s="50">
         <v>3</v>
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" s="10"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="58" t="s">
+      <c r="C46" s="129"/>
+      <c r="D46" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="E46" s="52">
+      <c r="E46" s="51">
         <v>4</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="10"/>
-      <c r="C47" s="125" t="s">
+      <c r="C47" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="E47" s="51">
+      <c r="E47" s="50">
         <v>1</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" s="10"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="44" t="s">
+      <c r="C48" s="112"/>
+      <c r="D48" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="51">
+      <c r="E48" s="50">
         <v>2</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B49" s="10"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="44" t="s">
+      <c r="C49" s="112"/>
+      <c r="D49" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="51">
+      <c r="E49" s="50">
         <v>3</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="10"/>
-      <c r="C50" s="138"/>
-      <c r="D50" s="58" t="s">
+      <c r="C50" s="129"/>
+      <c r="D50" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="E50" s="52">
+      <c r="E50" s="51">
         <v>4</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="10"/>
-      <c r="C51" s="125"/>
-      <c r="D51" s="44" t="s">
+      <c r="C51" s="112"/>
+      <c r="D51" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="E51" s="51">
+      <c r="E51" s="50">
         <v>1</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" s="10"/>
-      <c r="C52" s="125"/>
-      <c r="D52" s="44" t="s">
+      <c r="C52" s="112"/>
+      <c r="D52" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="51">
+      <c r="E52" s="50">
         <v>2</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" s="10"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="44" t="s">
+      <c r="C53" s="112"/>
+      <c r="D53" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="E53" s="51">
+      <c r="E53" s="50">
         <v>3</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" s="10"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="58" t="s">
+      <c r="C54" s="129"/>
+      <c r="D54" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="E54" s="52">
+      <c r="E54" s="51">
         <v>4</v>
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="10"/>
-      <c r="C57" s="133" t="s">
+      <c r="C57" s="124" t="s">
         <v>473</v>
       </c>
-      <c r="D57" s="134"/>
+      <c r="D57" s="125"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" s="10"/>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="D58" s="50" t="s">
+      <c r="D58" s="49" t="s">
         <v>132</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B59" s="10"/>
-      <c r="C59" s="44" t="s">
+      <c r="C59" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="D59" s="51">
+      <c r="D59" s="50">
         <v>1</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B60" s="10"/>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="D60" s="51">
+      <c r="D60" s="50">
         <v>2</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="10"/>
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="D61" s="51">
+      <c r="D61" s="50">
         <v>3</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B62" s="10"/>
-      <c r="C62" s="59" t="s">
+      <c r="C62" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="D62" s="52">
+      <c r="D62" s="51">
         <v>4</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" s="10"/>
-      <c r="C65" s="133" t="s">
+      <c r="C65" s="124" t="s">
         <v>474</v>
       </c>
-      <c r="D65" s="134"/>
+      <c r="D65" s="125"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B66" s="10"/>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="D66" s="50" t="s">
+      <c r="D66" s="49" t="s">
         <v>158</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B67" s="10"/>
-      <c r="C67" s="44" t="s">
+      <c r="C67" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D67" s="63" t="s">
+      <c r="D67" s="61" t="s">
         <v>159</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B68" s="10"/>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D68" s="63" t="s">
+      <c r="D68" s="61" t="s">
         <v>160</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B69" s="10"/>
-      <c r="C69" s="44" t="s">
+      <c r="C69" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D69" s="63" t="s">
+      <c r="D69" s="61" t="s">
         <v>161</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="10"/>
-      <c r="C70" s="44" t="s">
+      <c r="C70" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="D70" s="63" t="s">
+      <c r="D70" s="61" t="s">
         <v>162</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B71" s="10"/>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="64" t="s">
+      <c r="D71" s="62" t="s">
         <v>162</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B74" s="10"/>
-      <c r="C74" s="133" t="s">
+      <c r="C74" s="124" t="s">
         <v>486</v>
       </c>
-      <c r="D74" s="134"/>
+      <c r="D74" s="125"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B75" s="10"/>
-      <c r="C75" s="49" t="s">
+      <c r="C75" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="D75" s="50" t="s">
+      <c r="D75" s="49" t="s">
         <v>195</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B76" s="10"/>
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="D76" s="51">
+      <c r="D76" s="50">
         <v>1</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B77" s="10"/>
-      <c r="C77" s="44" t="s">
+      <c r="C77" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="D77" s="51">
+      <c r="D77" s="50">
         <v>2</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B78" s="10"/>
-      <c r="C78" s="44" t="s">
+      <c r="C78" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="D78" s="51">
+      <c r="D78" s="50">
         <v>3</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B79" s="10"/>
-      <c r="C79" s="59" t="s">
+      <c r="C79" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="D79" s="52">
+      <c r="D79" s="51">
         <v>4</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
@@ -9190,34 +9290,34 @@
       <selection activeCell="C51" sqref="C51:D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="25.54296875"/>
-    <col min="4" max="4" customWidth="true" width="22.08984375"/>
+    <col min="3" max="3" customWidth="true" width="25.5"/>
+    <col min="4" max="4" customWidth="true" width="22.1640625"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.08984375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="K1" s="106" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K1" s="96" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -9228,12 +9328,12 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="10"/>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="130" t="s">
         <v>440</v>
       </c>
-      <c r="D6" s="140"/>
+      <c r="D6" s="131"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -9241,7 +9341,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -9252,12 +9352,12 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="2:11" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="124" t="s">
         <v>475</v>
       </c>
-      <c r="D8" s="134"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -9265,12 +9365,12 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>211</v>
       </c>
       <c r="E9" s="10"/>
@@ -9280,12 +9380,12 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="147">
+      <c r="D10" s="134">
         <v>3</v>
       </c>
       <c r="E10" s="10"/>
@@ -9295,12 +9395,12 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" s="10"/>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="147"/>
+      <c r="D11" s="134"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -9308,12 +9408,12 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="10"/>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="146"/>
+      <c r="D12" s="135"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -9321,10 +9421,10 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="52">
+      <c r="C13" s="58"/>
+      <c r="D13" s="51">
         <v>1</v>
       </c>
       <c r="E13" s="10"/>
@@ -9334,7 +9434,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -9345,7 +9445,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -9356,31 +9456,31 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="2:11" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="124" t="s">
         <v>476</v>
       </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="10"/>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="49" t="s">
         <v>214</v>
       </c>
       <c r="G17" s="10"/>
@@ -9388,16 +9488,16 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="10"/>
       <c r="C18" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="125" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="F18" s="145">
+      <c r="F18" s="134">
         <v>3</v>
       </c>
       <c r="G18" s="10"/>
@@ -9405,81 +9505,81 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="10"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="58" t="s">
+      <c r="C19" s="71"/>
+      <c r="D19" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="E19" s="138"/>
-      <c r="F19" s="145"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="134"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="10"/>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="141" t="s">
+      <c r="D20" s="59"/>
+      <c r="E20" s="132" t="s">
         <v>222</v>
       </c>
-      <c r="F20" s="145"/>
+      <c r="F20" s="134"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="10"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="58" t="s">
+      <c r="C21" s="71"/>
+      <c r="D21" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="E21" s="138"/>
-      <c r="F21" s="145"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="134"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="10"/>
       <c r="C22" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="125" t="s">
+      <c r="D22" s="43"/>
+      <c r="E22" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="F22" s="145"/>
+      <c r="F22" s="134"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="10"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="58" t="s">
+      <c r="C23" s="71"/>
+      <c r="D23" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="E23" s="138"/>
-      <c r="F23" s="146"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="135"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B24" s="10"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="52">
+      <c r="C24" s="71"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="51">
         <v>1</v>
       </c>
       <c r="G24" s="10"/>
@@ -9487,7 +9587,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -9498,7 +9598,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -9509,12 +9609,12 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="2:10" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
-      <c r="C27" s="133" t="s">
+      <c r="C27" s="124" t="s">
         <v>477</v>
       </c>
-      <c r="D27" s="134"/>
+      <c r="D27" s="125"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -9522,12 +9622,12 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B28" s="10"/>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="49" t="s">
         <v>234</v>
       </c>
       <c r="E28" s="10"/>
@@ -9537,12 +9637,12 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B29" s="10"/>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="79">
+      <c r="D29" s="75">
         <v>3</v>
       </c>
       <c r="E29" s="10"/>
@@ -9552,12 +9652,12 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B30" s="10"/>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="80">
+      <c r="D30" s="76">
         <v>1</v>
       </c>
       <c r="E30" s="10"/>
@@ -9567,7 +9667,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -9578,7 +9678,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -9589,12 +9689,12 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="2:10" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
-      <c r="C33" s="133" t="s">
+      <c r="C33" s="124" t="s">
         <v>478</v>
       </c>
-      <c r="D33" s="134"/>
+      <c r="D33" s="125"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -9602,12 +9702,12 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="2:10" ht="28.2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10" ht="28" x14ac:dyDescent="0.15">
       <c r="B34" s="10"/>
-      <c r="C34" s="81" t="s">
+      <c r="C34" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="49" t="s">
         <v>233</v>
       </c>
       <c r="E34" s="10"/>
@@ -9617,12 +9717,12 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B35" s="10"/>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="82">
+      <c r="D35" s="75">
         <v>1</v>
       </c>
       <c r="E35" s="10"/>
@@ -9632,12 +9732,12 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" s="10"/>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="75">
         <v>2</v>
       </c>
       <c r="E36" s="10"/>
@@ -9647,12 +9747,12 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" s="10"/>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="80">
+      <c r="D37" s="76">
         <v>3</v>
       </c>
       <c r="E37" s="10"/>
@@ -9662,7 +9762,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -9673,7 +9773,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -9684,180 +9784,180 @@
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
     </row>
-    <row r="40" spans="2:10" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="10"/>
-      <c r="C40" s="133" t="s">
+      <c r="C40" s="124" t="s">
         <v>479</v>
       </c>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41" s="10"/>
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="D41" s="76" t="s">
+      <c r="D41" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="E41" s="76" t="s">
+      <c r="E41" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="F41" s="143" t="s">
+      <c r="F41" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="G41" s="143"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" spans="2:10" ht="28.2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" s="10"/>
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="D42" s="76" t="s">
+      <c r="D42" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="E42" s="84" t="s">
+      <c r="E42" s="79" t="s">
         <v>237</v>
       </c>
-      <c r="F42" s="144" t="s">
+      <c r="F42" s="137" t="s">
         <v>247</v>
       </c>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B43" s="10"/>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="73" t="s">
         <v>239</v>
       </c>
-      <c r="D43" s="85"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="88">
+      <c r="D43" s="80"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="82">
         <v>3</v>
       </c>
-      <c r="G43" s="89">
+      <c r="G43" s="83">
         <v>2</v>
       </c>
-      <c r="H43" s="93" t="s">
+      <c r="H43" s="86" t="s">
         <v>244</v>
       </c>
-      <c r="I43" s="90">
+      <c r="I43" s="84">
         <v>1</v>
       </c>
       <c r="J43" s="10"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B44" s="10"/>
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="D44" s="84" t="s">
+      <c r="D44" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="E44" s="84"/>
-      <c r="F44" s="91">
+      <c r="E44" s="79"/>
+      <c r="F44" s="85">
         <v>3</v>
       </c>
-      <c r="G44" s="78">
+      <c r="G44" s="74">
         <v>2</v>
       </c>
-      <c r="H44" s="78">
+      <c r="H44" s="74">
         <v>1</v>
       </c>
-      <c r="I44" s="92">
+      <c r="I44" s="81">
         <v>0</v>
       </c>
       <c r="J44" s="10"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B45" s="10"/>
-      <c r="C45" s="76" t="s">
+      <c r="C45" s="73" t="s">
         <v>229</v>
       </c>
-      <c r="D45" s="85"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="55">
+      <c r="D45" s="80"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="54">
         <v>1</v>
       </c>
-      <c r="G45" s="55">
+      <c r="G45" s="54">
         <v>0</v>
       </c>
-      <c r="H45" s="55">
+      <c r="H45" s="54">
         <v>0</v>
       </c>
-      <c r="I45" s="55">
+      <c r="I45" s="54">
         <v>0</v>
       </c>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B46" s="10"/>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="57" t="s">
         <v>376</v>
       </c>
-      <c r="D46" s="84" t="s">
+      <c r="D46" s="79" t="s">
         <v>243</v>
       </c>
-      <c r="E46" s="44">
+      <c r="E46" s="43">
         <v>1</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="F46" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" spans="2:10" ht="28.2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10" ht="28" x14ac:dyDescent="0.15">
       <c r="B47" s="10"/>
-      <c r="C47" s="86" t="s">
+      <c r="C47" s="81" t="s">
         <v>377</v>
       </c>
-      <c r="D47" s="84" t="s">
+      <c r="D47" s="79" t="s">
         <v>243</v>
       </c>
-      <c r="E47" s="44">
+      <c r="E47" s="43">
         <v>1</v>
       </c>
-      <c r="F47" s="86" t="s">
+      <c r="F47" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="10"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B48" s="10"/>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="87" t="s">
+      <c r="D48" s="79" t="s">
         <v>243</v>
       </c>
-      <c r="E48" s="44">
+      <c r="E48" s="43">
         <v>1</v>
       </c>
-      <c r="F48" s="58" t="s">
+      <c r="F48" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="10"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -9868,7 +9968,7 @@
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -9879,12 +9979,12 @@
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
     </row>
-    <row r="51" spans="2:10" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="10"/>
-      <c r="C51" s="133" t="s">
+      <c r="C51" s="124" t="s">
         <v>480</v>
       </c>
-      <c r="D51" s="134"/>
+      <c r="D51" s="125"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -9892,12 +9992,12 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B52" s="10"/>
-      <c r="C52" s="81" t="s">
+      <c r="C52" s="77" t="s">
         <v>251</v>
       </c>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="49" t="s">
         <v>250</v>
       </c>
       <c r="E52" s="10"/>
@@ -9907,12 +10007,12 @@
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B53" s="10"/>
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="96" t="s">
+      <c r="D53" s="87" t="s">
         <v>252</v>
       </c>
       <c r="E53" s="10"/>
@@ -9922,12 +10022,12 @@
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B54" s="10"/>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="80">
+      <c r="D54" s="76">
         <v>1</v>
       </c>
       <c r="E54" s="10"/>
@@ -9937,7 +10037,7 @@
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -9950,6 +10050,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C40:I40"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F18:F23"/>
@@ -9959,11 +10064,6 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C40:I40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K1" location="'Rating Algorithm'!A48" display="'Rating Algorithm'!A48" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -9981,21 +10081,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.1796875"/>
-    <col min="4" max="4" customWidth="true" style="77" width="21.81640625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="77" width="17.54296875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.1640625"/>
+    <col min="4" max="4" customWidth="true" width="21.83203125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>226</v>
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="2:7" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -10003,41 +10103,41 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="10"/>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="128" t="s">
         <v>454</v>
       </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="10"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="54" t="s">
         <v>202</v>
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="10"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -10045,87 +10145,87 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
-      <c r="C9" s="83">
+      <c r="C9" s="78">
         <v>100</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="78">
         <v>50000</v>
       </c>
-      <c r="F9" s="107">
+      <c r="F9" s="61">
         <v>3</v>
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
-      <c r="C10" s="83">
+      <c r="C10" s="78">
         <v>100</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="E10" s="83">
+      <c r="E10" s="78">
         <v>60000</v>
       </c>
-      <c r="F10" s="107">
+      <c r="F10" s="61">
         <v>3</v>
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="10"/>
-      <c r="C11" s="83">
+      <c r="C11" s="78">
         <v>100</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="E11" s="83">
+      <c r="E11" s="78">
         <v>50</v>
       </c>
-      <c r="F11" s="107">
+      <c r="F11" s="61">
         <v>1</v>
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" s="10"/>
-      <c r="C12" s="83">
+      <c r="C12" s="78">
         <v>300</v>
       </c>
-      <c r="D12" s="83">
+      <c r="D12" s="78">
         <v>60000</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="78">
         <v>60000</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="61">
         <v>1</v>
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
-      <c r="C13" s="102">
+      <c r="C13" s="93">
         <v>300</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="93">
         <v>60000</v>
       </c>
-      <c r="E13" s="102">
+      <c r="E13" s="93">
         <v>100000</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="62">
         <v>3</v>
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -10133,7 +10233,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -10141,41 +10241,41 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="10"/>
-      <c r="C16" s="137" t="s">
+      <c r="C16" s="128" t="s">
         <v>455</v>
       </c>
-      <c r="D16" s="137"/>
+      <c r="D16" s="128"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="10"/>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="54" t="s">
         <v>202</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="2:7" ht="42" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" ht="42" x14ac:dyDescent="0.15">
       <c r="B18" s="10"/>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="10"/>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -10185,19 +10285,19 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="10"/>
-      <c r="C20" s="102">
+      <c r="C20" s="93">
         <v>2010</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="62">
         <v>1</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -10225,27 +10325,27 @@
       <selection activeCell="C43" sqref="C43:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="29.54296875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.6328125"/>
-    <col min="6" max="6" customWidth="true" width="6.54296875"/>
-    <col min="8" max="8" customWidth="true" width="7.453125"/>
+    <col min="3" max="3" customWidth="true" width="29.5"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.6640625"/>
+    <col min="6" max="6" customWidth="true" width="6.5"/>
+    <col min="8" max="8" customWidth="true" width="7.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="O1" s="106" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="O1" s="96" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:15" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="47"/>
-    </row>
-    <row r="4" spans="2:15" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C3" s="46"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -10260,12 +10360,12 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="2:15" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="10"/>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="130" t="s">
         <v>441</v>
       </c>
-      <c r="D6" s="140"/>
+      <c r="D6" s="131"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -10277,7 +10377,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -10292,12 +10392,12 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="2:15" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="124" t="s">
         <v>481</v>
       </c>
-      <c r="D8" s="134"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -10309,12 +10409,12 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>288</v>
       </c>
       <c r="E9" s="10"/>
@@ -10328,12 +10428,12 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="75">
         <v>1</v>
       </c>
       <c r="E10" s="10"/>
@@ -10347,12 +10447,12 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B11" s="10"/>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="76">
         <v>3</v>
       </c>
       <c r="E11" s="10"/>
@@ -10366,7 +10466,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -10381,7 +10481,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -10396,12 +10496,12 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="2:15" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="124" t="s">
         <v>482</v>
       </c>
-      <c r="D14" s="134"/>
+      <c r="D14" s="125"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -10413,12 +10513,12 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B15" s="10"/>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="77" t="s">
         <v>289</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="49" t="s">
         <v>290</v>
       </c>
       <c r="E15" s="10"/>
@@ -10432,12 +10532,12 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B16" s="10"/>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="75">
         <v>1</v>
       </c>
       <c r="E16" s="10"/>
@@ -10451,12 +10551,12 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17" s="10"/>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="75">
         <v>2</v>
       </c>
       <c r="E17" s="10"/>
@@ -10470,12 +10570,12 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18" s="10"/>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="76">
         <v>3</v>
       </c>
       <c r="E18" s="10"/>
@@ -10489,7 +10589,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -10504,7 +10604,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -10519,12 +10619,12 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:14" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="124" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="134"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -10536,12 +10636,12 @@
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:14" ht="28.2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B22" s="10"/>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="49" t="s">
         <v>290</v>
       </c>
       <c r="E22" s="10"/>
@@ -10555,12 +10655,12 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B23" s="10"/>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="75">
         <v>1</v>
       </c>
       <c r="E23" s="10"/>
@@ -10574,12 +10674,12 @@
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24" s="10"/>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="75">
         <v>2</v>
       </c>
       <c r="E24" s="10"/>
@@ -10593,12 +10693,12 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B25" s="10"/>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="76">
         <v>3</v>
       </c>
       <c r="E25" s="10"/>
@@ -10612,7 +10712,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -10627,7 +10727,7 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -10642,332 +10742,332 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="2:14" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
-      <c r="C28" s="133" t="s">
+      <c r="C28" s="124" t="s">
         <v>484</v>
       </c>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="133"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="124"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B29" s="10"/>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="F29" s="143" t="s">
+      <c r="F29" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="G29" s="143"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="143"/>
-      <c r="M29" s="143"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B30" s="10"/>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="77" t="s">
         <v>294</v>
       </c>
-      <c r="D30" s="76" t="s">
+      <c r="D30" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="E30" s="84" t="s">
+      <c r="E30" s="79" t="s">
         <v>237</v>
       </c>
-      <c r="F30" s="144" t="s">
+      <c r="F30" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="144"/>
-      <c r="M30" s="144"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B31" s="10"/>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="73" t="s">
         <v>239</v>
       </c>
-      <c r="D31" s="85"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="98" t="s">
+      <c r="D31" s="80"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="G31" s="99">
+      <c r="G31" s="90">
         <v>4</v>
       </c>
-      <c r="H31" s="93" t="s">
+      <c r="H31" s="86" t="s">
         <v>297</v>
       </c>
-      <c r="I31" s="90">
+      <c r="I31" s="84">
         <v>3</v>
       </c>
-      <c r="J31" s="100" t="s">
+      <c r="J31" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="K31" s="90">
+      <c r="K31" s="84">
         <v>2</v>
       </c>
-      <c r="L31" s="100" t="s">
+      <c r="L31" s="91" t="s">
         <v>244</v>
       </c>
-      <c r="M31" s="90">
+      <c r="M31" s="84">
         <v>1</v>
       </c>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B32" s="10"/>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="E32" s="84"/>
-      <c r="F32" s="91">
+      <c r="E32" s="79"/>
+      <c r="F32" s="85">
         <v>7</v>
       </c>
-      <c r="G32" s="78">
+      <c r="G32" s="74">
         <v>6</v>
       </c>
-      <c r="H32" s="78">
+      <c r="H32" s="74">
         <v>5</v>
       </c>
-      <c r="I32" s="92">
+      <c r="I32" s="81">
         <v>4</v>
       </c>
-      <c r="J32" s="92">
+      <c r="J32" s="81">
         <v>3</v>
       </c>
-      <c r="K32" s="92">
+      <c r="K32" s="81">
         <v>2</v>
       </c>
-      <c r="L32" s="92">
+      <c r="L32" s="81">
         <v>1</v>
       </c>
-      <c r="M32" s="92">
+      <c r="M32" s="81">
         <v>0</v>
       </c>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33" s="10"/>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="73" t="s">
         <v>229</v>
       </c>
-      <c r="D33" s="85"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="55">
+      <c r="D33" s="80"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="54">
         <v>1</v>
       </c>
-      <c r="G33" s="55">
+      <c r="G33" s="54">
         <v>0</v>
       </c>
-      <c r="H33" s="55">
+      <c r="H33" s="54">
         <v>0</v>
       </c>
-      <c r="I33" s="55">
+      <c r="I33" s="54">
         <v>0</v>
       </c>
-      <c r="J33" s="55">
+      <c r="J33" s="54">
         <v>0</v>
       </c>
-      <c r="K33" s="55">
+      <c r="K33" s="54">
         <v>0</v>
       </c>
-      <c r="L33" s="55">
+      <c r="L33" s="54">
         <v>0</v>
       </c>
-      <c r="M33" s="55">
+      <c r="M33" s="54">
         <v>0</v>
       </c>
       <c r="N33" s="10"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34" s="10"/>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="84" t="s">
+      <c r="D34" s="79" t="s">
         <v>243</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="43">
         <v>1</v>
       </c>
-      <c r="F34" s="58" t="s">
+      <c r="F34" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35" s="10"/>
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="84" t="s">
+      <c r="D35" s="79" t="s">
         <v>243</v>
       </c>
-      <c r="E35" s="44">
+      <c r="E35" s="43">
         <v>1</v>
       </c>
-      <c r="F35" s="86" t="s">
+      <c r="F35" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="2:14" ht="28.2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B36" s="10"/>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="84" t="s">
+      <c r="D36" s="79" t="s">
         <v>243</v>
       </c>
-      <c r="E36" s="44">
+      <c r="E36" s="43">
         <v>1</v>
       </c>
-      <c r="F36" s="86" t="s">
+      <c r="F36" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37" s="10"/>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="84" t="s">
+      <c r="D37" s="79" t="s">
         <v>243</v>
       </c>
-      <c r="E37" s="44">
+      <c r="E37" s="43">
         <v>1</v>
       </c>
-      <c r="F37" s="86" t="s">
+      <c r="F37" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38" s="10"/>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="84" t="s">
+      <c r="D38" s="79" t="s">
         <v>243</v>
       </c>
-      <c r="E38" s="44">
+      <c r="E38" s="43">
         <v>1</v>
       </c>
-      <c r="F38" s="86" t="s">
+      <c r="F38" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39" s="10"/>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="84" t="s">
+      <c r="D39" s="79" t="s">
         <v>243</v>
       </c>
-      <c r="E39" s="44">
+      <c r="E39" s="43">
         <v>1</v>
       </c>
-      <c r="F39" s="86" t="s">
+      <c r="F39" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40" s="10"/>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="87" t="s">
+      <c r="D40" s="79" t="s">
         <v>243</v>
       </c>
-      <c r="E40" s="44">
+      <c r="E40" s="43">
         <v>1</v>
       </c>
-      <c r="F40" s="58" t="s">
+      <c r="F40" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -10982,7 +11082,7 @@
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -10997,13 +11097,13 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
     </row>
-    <row r="43" spans="2:14" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:14" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="10"/>
-      <c r="C43" s="133" t="s">
+      <c r="C43" s="124" t="s">
         <v>485</v>
       </c>
-      <c r="D43" s="133"/>
-      <c r="E43" s="133"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="124"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -11014,15 +11114,15 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44" s="10"/>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="49" t="s">
         <v>229</v>
       </c>
       <c r="F44" s="10"/>
@@ -11035,13 +11135,13 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="10"/>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="145" t="s">
+      <c r="D45" s="43"/>
+      <c r="E45" s="134" t="s">
         <v>252</v>
       </c>
       <c r="F45" s="10"/>
@@ -11054,13 +11154,13 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B46" s="10"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44" t="s">
+      <c r="C46" s="43"/>
+      <c r="D46" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="146"/>
+      <c r="E46" s="135"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -11071,11 +11171,11 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B47" s="10"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="101">
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="92">
         <v>1</v>
       </c>
       <c r="F47" s="10"/>
@@ -11088,7 +11188,7 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -11105,15 +11205,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="C28:M28"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="C28:M28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O1" location="'Rating Algorithm'!A66" display="'Rating Algorithm'!A66" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
@@ -11131,46 +11231,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="34.36328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.6328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.33203125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.6640625"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="118" t="s">
+    <row r="3" spans="2:5" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="107" t="s">
         <v>292</v>
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="2:5" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" s="10"/>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="128" t="s">
         <v>456</v>
       </c>
-      <c r="D6" s="137"/>
+      <c r="D6" s="128"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" s="10"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="54" t="s">
         <v>202</v>
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" s="10"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -11178,77 +11278,77 @@
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="107">
+      <c r="D9" s="61">
         <v>1</v>
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="107">
+      <c r="D10" s="61">
         <v>2</v>
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" s="10"/>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="62">
         <v>3</v>
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" s="10"/>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="128" t="s">
         <v>457</v>
       </c>
-      <c r="D14" s="137"/>
+      <c r="D14" s="128"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B15" s="10"/>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="54" t="s">
         <v>202</v>
       </c>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B16" s="10"/>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="10"/>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -11256,17 +11356,17 @@
       </c>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="10"/>
-      <c r="C18" s="102">
+      <c r="C18" s="93">
         <v>2010</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="62">
         <v>1</v>
       </c>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -11292,183 +11392,183 @@
       <selection activeCell="C20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="39.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="30.08984375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.83203125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="30.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="F1" s="106" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F1" s="96" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="47"/>
-    </row>
-    <row r="4" spans="2:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C3" s="46"/>
+    </row>
+    <row r="4" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="10"/>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="130" t="s">
         <v>442</v>
       </c>
-      <c r="D6" s="140"/>
+      <c r="D6" s="131"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="124" t="s">
         <v>487</v>
       </c>
-      <c r="D8" s="134"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>321</v>
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="75">
         <v>3</v>
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="10"/>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="76">
         <v>1</v>
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="2:6" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="124" t="s">
         <v>488</v>
       </c>
-      <c r="D14" s="134"/>
+      <c r="D14" s="125"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="10"/>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="49" t="s">
         <v>323</v>
       </c>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="10"/>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="75">
         <v>3</v>
       </c>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="10"/>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="76">
         <v>1</v>
       </c>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="2:5" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="124" t="s">
         <v>489</v>
       </c>
-      <c r="D20" s="134"/>
+      <c r="D20" s="125"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" s="10"/>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="49" t="s">
         <v>325</v>
       </c>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B22" s="10"/>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="75">
         <v>3</v>
       </c>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="10"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="76">
         <v>1</v>
       </c>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -11499,28 +11599,28 @@
       <selection activeCell="D15" sqref="D15:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="12.453125"/>
-    <col min="4" max="4" customWidth="true" width="16.1796875"/>
+    <col min="3" max="3" customWidth="true" width="12.5"/>
+    <col min="4" max="4" customWidth="true" width="16.1640625"/>
     <col min="5" max="5" customWidth="true" width="18.0"/>
-    <col min="6" max="6" customWidth="true" width="17.08984375"/>
-    <col min="7" max="7" customWidth="true" width="10.6328125"/>
+    <col min="6" max="6" customWidth="true" width="17.1640625"/>
+    <col min="7" max="7" customWidth="true" width="10.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I1" s="106" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I1" s="96" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="47"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C3" s="46"/>
+    </row>
+    <row r="4" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -11528,17 +11628,17 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="2:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="10"/>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="130" t="s">
         <v>443</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -11546,65 +11646,65 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="2:9" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="10"/>
-      <c r="D8" s="133" t="s">
+      <c r="D8" s="124" t="s">
         <v>490</v>
       </c>
-      <c r="E8" s="134"/>
+      <c r="E8" s="125"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C9" s="10"/>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="49" t="s">
         <v>277</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C10" s="10"/>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="61" t="s">
         <v>278</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C11" s="10"/>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="61" t="s">
         <v>279</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C12" s="10"/>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="62" t="s">
         <v>240</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -11612,7 +11712,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -11620,465 +11720,465 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="2:9" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="10"/>
-      <c r="D15" s="133" t="s">
+      <c r="D15" s="124" t="s">
         <v>467</v>
       </c>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C16" s="10"/>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="49" t="s">
         <v>343</v>
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C17" s="10"/>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="61" t="s">
         <v>278</v>
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C18" s="10"/>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="G18" s="63" t="s">
+      <c r="G18" s="61" t="s">
         <v>278</v>
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C19" s="10"/>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="61" t="s">
         <v>278</v>
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C20" s="10"/>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="G20" s="63" t="s">
+      <c r="G20" s="61" t="s">
         <v>278</v>
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C21" s="10"/>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="61" t="s">
         <v>278</v>
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C22" s="10"/>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="G22" s="63" t="s">
+      <c r="G22" s="61" t="s">
         <v>279</v>
       </c>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C23" s="10"/>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="G23" s="63" t="s">
+      <c r="G23" s="61" t="s">
         <v>278</v>
       </c>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C24" s="10"/>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="G24" s="63" t="s">
+      <c r="G24" s="61" t="s">
         <v>279</v>
       </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C25" s="10"/>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="G25" s="63" t="s">
+      <c r="G25" s="61" t="s">
         <v>279</v>
       </c>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C26" s="10"/>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="G26" s="63" t="s">
+      <c r="G26" s="61" t="s">
         <v>278</v>
       </c>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C27" s="10"/>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="61" t="s">
         <v>279</v>
       </c>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C28" s="10"/>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="G28" s="63" t="s">
+      <c r="G28" s="61" t="s">
         <v>279</v>
       </c>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C29" s="10"/>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="G29" s="63" t="s">
+      <c r="G29" s="61" t="s">
         <v>279</v>
       </c>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C30" s="10"/>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="G30" s="63" t="s">
+      <c r="G30" s="61" t="s">
         <v>279</v>
       </c>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C31" s="10"/>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E31" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="G31" s="63" t="s">
+      <c r="G31" s="61" t="s">
         <v>279</v>
       </c>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C32" s="10"/>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="F32" s="44" t="s">
+      <c r="F32" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="G32" s="63" t="s">
+      <c r="G32" s="61" t="s">
         <v>279</v>
       </c>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C33" s="10"/>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="G33" s="63" t="s">
+      <c r="G33" s="61" t="s">
         <v>279</v>
       </c>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C34" s="10"/>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="F34" s="44" t="s">
+      <c r="F34" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="G34" s="63" t="s">
+      <c r="G34" s="61" t="s">
         <v>240</v>
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C35" s="10"/>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="E35" s="44" t="s">
+      <c r="E35" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="F35" s="44" t="s">
+      <c r="F35" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="61" t="s">
         <v>279</v>
       </c>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C36" s="10"/>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="G36" s="63" t="s">
+      <c r="G36" s="61" t="s">
         <v>279</v>
       </c>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C37" s="10"/>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="G37" s="63" t="s">
+      <c r="G37" s="61" t="s">
         <v>240</v>
       </c>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C38" s="10"/>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="F38" s="44" t="s">
+      <c r="F38" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="G38" s="63" t="s">
+      <c r="G38" s="61" t="s">
         <v>279</v>
       </c>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C39" s="10"/>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="61" t="s">
         <v>240</v>
       </c>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C40" s="10"/>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="E40" s="44" t="s">
+      <c r="E40" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="G40" s="63" t="s">
+      <c r="G40" s="61" t="s">
         <v>240</v>
       </c>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C41" s="10"/>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="E41" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="G41" s="63" t="s">
+      <c r="G41" s="61" t="s">
         <v>240</v>
       </c>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C42" s="10"/>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="G42" s="63" t="s">
+      <c r="G42" s="61" t="s">
         <v>240</v>
       </c>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C43" s="10"/>
-      <c r="D43" s="59" t="s">
+      <c r="D43" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="E43" s="59" t="s">
+      <c r="E43" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="F43" s="59" t="s">
+      <c r="F43" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="G43" s="64" t="s">
+      <c r="G43" s="62" t="s">
         <v>240</v>
       </c>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
